--- a/mosip_master/xlsx/device_master_h.xlsx
+++ b/mosip_master/xlsx/device_master_h.xlsx
@@ -10,9 +10,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$37</definedName>
-  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -23,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="29">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -80,6 +77,9 @@
   </si>
   <si>
     <t xml:space="preserve">Mock Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fra</t>
   </si>
   <si>
     <t xml:space="preserve">KTA</t>
@@ -230,22 +230,18 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.43"/>
@@ -385,10 +381,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
@@ -403,10 +399,10 @@
         <v>327</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
@@ -417,10 +413,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>17</v>
@@ -435,10 +431,10 @@
         <v>165</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>15</v>
@@ -449,10 +445,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>18</v>
@@ -467,10 +463,10 @@
         <v>736</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>15</v>
@@ -484,7 +480,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>12</v>
@@ -502,7 +498,7 @@
         <v>20</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>15</v>
@@ -516,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>17</v>
@@ -534,7 +530,7 @@
         <v>20</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>15</v>
@@ -548,7 +544,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>18</v>
@@ -566,7 +562,7 @@
         <v>20</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>15</v>
@@ -577,10 +573,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>12</v>
@@ -595,10 +591,10 @@
         <v>327</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>15</v>
@@ -609,10 +605,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>17</v>
@@ -627,10 +623,10 @@
         <v>165</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>15</v>
@@ -641,10 +637,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>18</v>
@@ -659,10 +655,10 @@
         <v>736</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>15</v>
@@ -676,7 +672,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>12</v>
@@ -694,7 +690,7 @@
         <v>21</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>15</v>
@@ -708,7 +704,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>17</v>
@@ -726,7 +722,7 @@
         <v>21</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>15</v>
@@ -740,7 +736,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>18</v>
@@ -758,7 +754,7 @@
         <v>21</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>15</v>
@@ -769,10 +765,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="n">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>12</v>
@@ -787,10 +783,10 @@
         <v>327</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="1" t="n">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>15</v>
@@ -801,10 +797,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
@@ -819,10 +815,10 @@
         <v>165</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" s="1" t="n">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>15</v>
@@ -833,10 +829,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1" t="n">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>18</v>
@@ -851,10 +847,10 @@
         <v>736</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" s="1" t="n">
-        <v>10006</v>
+        <v>10003</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>15</v>
@@ -868,7 +864,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="1" t="n">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>12</v>
@@ -883,10 +879,10 @@
         <v>327</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I20" s="1" t="n">
-        <v>10007</v>
+        <v>10004</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>15</v>
@@ -900,7 +896,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="1" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>17</v>
@@ -915,10 +911,10 @@
         <v>165</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I21" s="1" t="n">
-        <v>10007</v>
+        <v>10004</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>15</v>
@@ -932,7 +928,7 @@
         <v>11</v>
       </c>
       <c r="B22" s="1" t="n">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>18</v>
@@ -947,10 +943,10 @@
         <v>736</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I22" s="1" t="n">
-        <v>10007</v>
+        <v>10004</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>15</v>
@@ -961,10 +957,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B23" s="1" t="n">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>12</v>
@@ -979,10 +975,10 @@
         <v>327</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I23" s="1" t="n">
-        <v>10008</v>
+        <v>10004</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>15</v>
@@ -993,10 +989,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B24" s="1" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>17</v>
@@ -1011,10 +1007,10 @@
         <v>165</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I24" s="1" t="n">
-        <v>10008</v>
+        <v>10004</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>15</v>
@@ -1025,10 +1021,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B25" s="1" t="n">
-        <v>3008</v>
+        <v>3004</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>18</v>
@@ -1043,10 +1039,10 @@
         <v>736</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="I25" s="1" t="n">
-        <v>10008</v>
+        <v>10004</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>15</v>
@@ -1060,7 +1056,7 @@
         <v>11</v>
       </c>
       <c r="B26" s="1" t="n">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>12</v>
@@ -1075,10 +1071,10 @@
         <v>327</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I26" s="1" t="n">
-        <v>10009</v>
+        <v>10005</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>15</v>
@@ -1092,7 +1088,7 @@
         <v>11</v>
       </c>
       <c r="B27" s="1" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>17</v>
@@ -1107,10 +1103,10 @@
         <v>165</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I27" s="1" t="n">
-        <v>10009</v>
+        <v>10005</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>15</v>
@@ -1124,7 +1120,7 @@
         <v>11</v>
       </c>
       <c r="B28" s="1" t="n">
-        <v>3009</v>
+        <v>3005</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>18</v>
@@ -1139,10 +1135,10 @@
         <v>736</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I28" s="1" t="n">
-        <v>10009</v>
+        <v>10005</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>15</v>
@@ -1153,10 +1149,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B29" s="1" t="n">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>12</v>
@@ -1171,10 +1167,10 @@
         <v>327</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I29" s="1" t="n">
-        <v>10010</v>
+        <v>10005</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>15</v>
@@ -1185,10 +1181,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B30" s="1" t="n">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>17</v>
@@ -1203,10 +1199,10 @@
         <v>165</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I30" s="1" t="n">
-        <v>10010</v>
+        <v>10005</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>15</v>
@@ -1217,10 +1213,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B31" s="1" t="n">
-        <v>3010</v>
+        <v>3005</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>18</v>
@@ -1235,10 +1231,10 @@
         <v>736</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I31" s="1" t="n">
-        <v>10010</v>
+        <v>10005</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>15</v>
@@ -1252,7 +1248,7 @@
         <v>11</v>
       </c>
       <c r="B32" s="1" t="n">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>12</v>
@@ -1267,10 +1263,10 @@
         <v>327</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I32" s="1" t="n">
-        <v>10011</v>
+        <v>10006</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>15</v>
@@ -1284,7 +1280,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="1" t="n">
-        <v>2011</v>
+        <v>2006</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>17</v>
@@ -1299,10 +1295,10 @@
         <v>165</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I33" s="1" t="n">
-        <v>10011</v>
+        <v>10006</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>15</v>
@@ -1316,7 +1312,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="1" t="n">
-        <v>3011</v>
+        <v>3006</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>18</v>
@@ -1331,10 +1327,10 @@
         <v>736</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I34" s="1" t="n">
-        <v>10011</v>
+        <v>10006</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>15</v>
@@ -1345,10 +1341,10 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B35" s="1" t="n">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>12</v>
@@ -1363,10 +1359,10 @@
         <v>327</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I35" s="1" t="n">
-        <v>10012</v>
+        <v>10006</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>15</v>
@@ -1377,10 +1373,10 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B36" s="1" t="n">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>17</v>
@@ -1395,10 +1391,10 @@
         <v>165</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I36" s="1" t="n">
-        <v>10012</v>
+        <v>10006</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>15</v>
@@ -1409,10 +1405,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B37" s="1" t="n">
-        <v>3012</v>
+        <v>3006</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>18</v>
@@ -1427,27 +1423,1177 @@
         <v>736</v>
       </c>
       <c r="H37" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="1" t="n">
+        <v>10006</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G38" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="1" t="n">
+      <c r="I38" s="1" t="n">
+        <v>10007</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G39" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="1" t="n">
+        <v>10007</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>3007</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G40" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="1" t="n">
+        <v>10007</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>1007</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G41" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="1" t="n">
+        <v>10007</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G42" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="1" t="n">
+        <v>10007</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>3007</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G43" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="1" t="n">
+        <v>10007</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G44" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="1" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G45" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I45" s="1" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>3008</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G46" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" s="1" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>1008</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G47" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47" s="1" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G48" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" s="1" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>3008</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G49" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I49" s="1" t="n">
+        <v>10008</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G50" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" s="1" t="n">
+        <v>10009</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G51" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="1" t="n">
+        <v>10009</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>3009</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G52" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" s="1" t="n">
+        <v>10009</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>1009</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G53" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="1" t="n">
+        <v>10009</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G54" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="1" t="n">
+        <v>10009</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>3009</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G55" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" s="1" t="n">
+        <v>10009</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G56" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" s="1" t="n">
+        <v>10010</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G57" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" s="1" t="n">
+        <v>10010</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>3010</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G58" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I58" s="1" t="n">
+        <v>10010</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>1010</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G59" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" s="1" t="n">
+        <v>10010</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G60" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" s="1" t="n">
+        <v>10010</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>3010</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G61" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I61" s="1" t="n">
+        <v>10010</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G62" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I62" s="1" t="n">
+        <v>10011</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K62" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G63" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" s="1" t="n">
+        <v>10011</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K63" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>3011</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G64" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I64" s="1" t="n">
+        <v>10011</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>1011</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G65" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" s="1" t="n">
+        <v>10011</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G66" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" s="1" t="n">
+        <v>10011</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>3011</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G67" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" s="1" t="n">
+        <v>10011</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G68" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I68" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="J37" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K37" s="4" t="s">
+      <c r="J68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G69" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" s="1" t="n">
+        <v>10012</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>3012</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G70" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I70" s="1" t="n">
+        <v>10012</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>1012</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="4" t="n">
+        <v>3456789012</v>
+      </c>
+      <c r="G71" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" s="1" t="n">
+        <v>10012</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="4" t="n">
+        <v>1234567890</v>
+      </c>
+      <c r="G72" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72" s="1" t="n">
+        <v>10012</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>3012</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="4" t="n">
+        <v>2345678901</v>
+      </c>
+      <c r="G73" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" s="1" t="n">
+        <v>10012</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K73" s="4" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K37"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/device_master_h.xlsx
+++ b/mosip_master/xlsx/device_master_h.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicholas\Desktop\NIRA MASTERDATA\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8254F46F-63BB-488E-B999-6F54FF047055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A03F8A6C-5E27-4C08-B38A-FFE6BE14043F}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="device_master_h" sheetId="1" r:id="rId1"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -88,13 +83,19 @@
     <t>eng</t>
   </si>
   <si>
-    <t>t</t>
+    <t>true</t>
   </si>
   <si>
     <t>admin</t>
   </si>
   <si>
-    <t>f</t>
+    <t>2024-02-15 06:37:22.304</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>2024-02-15 06:37:22.373</t>
   </si>
   <si>
     <t>Mock FingerPrint Scanner</t>
@@ -142,12 +143,18 @@
     <t>2241LZ9293K8</t>
   </si>
   <si>
+    <t>2024-04-08 21:00:00.000</t>
+  </si>
+  <si>
     <t>MKN</t>
   </si>
   <si>
     <t>globaladmin</t>
   </si>
   <si>
+    <t>2024-04-09 14:47:52.426</t>
+  </si>
+  <si>
     <t>a8bcbb3a-93b3-41db-a6d7-0294618fb833</t>
   </si>
   <si>
@@ -157,573 +164,169 @@
     <t>DF0052000024031A</t>
   </si>
   <si>
+    <t>2024-04-09 14:49:58.336</t>
+  </si>
+  <si>
     <t>12ea9ada-36c4-4839-ada4-e249afaf580d</t>
   </si>
   <si>
     <t>RealScan-G10</t>
   </si>
   <si>
+    <t>2024-04-09 14:51:54.264</t>
+  </si>
+  <si>
+    <t>2024-04-09 14:52:16.533</t>
+  </si>
+  <si>
+    <t>2024-04-09 14:52:20.877</t>
+  </si>
+  <si>
+    <t>2024-04-09 14:52:24.881</t>
+  </si>
+  <si>
     <t>1FE4516</t>
   </si>
   <si>
+    <t>2024-04-09 17:06:48.223</t>
+  </si>
+  <si>
     <t>RS-G10</t>
   </si>
   <si>
+    <t>2024-04-09 17:07:22.116</t>
+  </si>
+  <si>
     <t>KLA</t>
   </si>
   <si>
+    <t>2024-04-09 17:11:15.594</t>
+  </si>
+  <si>
+    <t>2024-04-09 17:11:40.899</t>
+  </si>
+  <si>
+    <t>2024-04-09 17:12:24.985</t>
+  </si>
+  <si>
+    <t>2024-04-09 17:13:01.116</t>
+  </si>
+  <si>
+    <t>2024-04-10 21:00:00.000</t>
+  </si>
+  <si>
+    <t>2024-04-11 06:20:18.498</t>
+  </si>
+  <si>
+    <t>2024-06-26 12:50:39.627</t>
+  </si>
+  <si>
+    <t>2024-06-26 12:50:46.067</t>
+  </si>
+  <si>
+    <t>2024-06-26 12:52:58.863</t>
+  </si>
+  <si>
+    <t>2024-06-26 12:53:05.967</t>
+  </si>
+  <si>
+    <t>2025-12-30 21:00:00.000</t>
+  </si>
+  <si>
+    <t>2024-08-08 06:11:40.050</t>
+  </si>
+  <si>
+    <t>2024-08-08 06:12:13.846</t>
+  </si>
+  <si>
+    <t>2024-08-08 06:12:32.057</t>
+  </si>
+  <si>
     <t>807b28a8-80cd-47e7-9258-71be5b81f0de</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
+    <t>2024-08-08 07:10:49.767</t>
+  </si>
+  <si>
+    <t>2024-08-08 07:11:00.079</t>
+  </si>
+  <si>
     <t>ec48fb6e-1916-4124-bf4a-02f3bbb2f5d1</t>
   </si>
   <si>
     <t>DF0052000020940A</t>
+  </si>
+  <si>
+    <t>2024-08-08 07:53:01.343</t>
+  </si>
+  <si>
+    <t>2024-08-08 07:53:08.812</t>
+  </si>
+  <si>
+    <t>7f8de61a-3e80-42bd-9bf9-374049606439</t>
+  </si>
+  <si>
+    <t>TECHNO-531</t>
+  </si>
+  <si>
+    <t>srbgrb</t>
+  </si>
+  <si>
+    <t>2047-12-30 18:30:00.000</t>
+  </si>
+  <si>
+    <t>2024-08-29 12:42:17.042</t>
+  </si>
+  <si>
+    <t>2024-08-29 12:43:02.615</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
+  <borders count="1">
+    <border/>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -738,44 +341,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -803,31 +406,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -855,23 +441,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -883,174 +452,183 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{312E0017-3A2E-4995-BD7D-5E8304583941}">
-  <dimension ref="A1:R61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1106,7 +684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -1137,22 +715,22 @@
       <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="1">
-        <v>45337.27595260417</v>
+      <c r="M2" t="s">
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="R2" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>2001</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1178,22 +756,22 @@
       <c r="L3" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="1">
-        <v>45337.27595260417</v>
+      <c r="M3" t="s">
+        <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R3" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4">
         <v>3001</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
         <v>19</v>
@@ -1219,17 +797,17 @@
       <c r="L4" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="1">
-        <v>45337.27595260417</v>
+      <c r="M4" t="s">
+        <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5">
         <v>1002</v>
       </c>
@@ -1246,7 +824,7 @@
         <v>327</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I5">
         <v>10002</v>
@@ -1260,22 +838,22 @@
       <c r="L5" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="1">
-        <v>45337.27595260417</v>
+      <c r="M5" t="s">
+        <v>24</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
-      </c>
-      <c r="R5" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6">
         <v>2002</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
@@ -1287,7 +865,7 @@
         <v>165</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I6">
         <v>10002</v>
@@ -1301,22 +879,22 @@
       <c r="L6" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="1">
-        <v>45337.27595260417</v>
+      <c r="M6" t="s">
+        <v>24</v>
       </c>
       <c r="P6" t="s">
-        <v>24</v>
-      </c>
-      <c r="R6" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7">
         <v>3002</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -1328,7 +906,7 @@
         <v>736</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I7">
         <v>10002</v>
@@ -1342,17 +920,17 @@
       <c r="L7" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="1">
-        <v>45337.27595260417</v>
+      <c r="M7" t="s">
+        <v>24</v>
       </c>
       <c r="P7" t="s">
-        <v>24</v>
-      </c>
-      <c r="R7" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8">
         <v>1003</v>
       </c>
@@ -1369,7 +947,7 @@
         <v>327</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I8">
         <v>10003</v>
@@ -1383,22 +961,22 @@
       <c r="L8" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="1">
-        <v>45337.27595260417</v>
+      <c r="M8" t="s">
+        <v>24</v>
       </c>
       <c r="P8" t="s">
-        <v>24</v>
-      </c>
-      <c r="R8" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9">
         <v>2003</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
         <v>19</v>
@@ -1410,7 +988,7 @@
         <v>165</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I9">
         <v>10003</v>
@@ -1424,22 +1002,22 @@
       <c r="L9" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="1">
-        <v>45337.27595260417</v>
+      <c r="M9" t="s">
+        <v>24</v>
       </c>
       <c r="P9" t="s">
-        <v>24</v>
-      </c>
-      <c r="R9" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10">
         <v>3003</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -1451,7 +1029,7 @@
         <v>736</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I10">
         <v>10003</v>
@@ -1465,17 +1043,17 @@
       <c r="L10" t="s">
         <v>23</v>
       </c>
-      <c r="M10" s="1">
-        <v>45337.27595260417</v>
+      <c r="M10" t="s">
+        <v>24</v>
       </c>
       <c r="P10" t="s">
-        <v>24</v>
-      </c>
-      <c r="R10" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11">
         <v>1004</v>
       </c>
@@ -1506,22 +1084,22 @@
       <c r="L11" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="1">
-        <v>45337.27595260417</v>
+      <c r="M11" t="s">
+        <v>24</v>
       </c>
       <c r="P11" t="s">
-        <v>24</v>
-      </c>
-      <c r="R11" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12">
         <v>2004</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1547,22 +1125,22 @@
       <c r="L12" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="1">
-        <v>45337.27595260417</v>
+      <c r="M12" t="s">
+        <v>24</v>
       </c>
       <c r="P12" t="s">
-        <v>24</v>
-      </c>
-      <c r="R12" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13">
         <v>3004</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
         <v>19</v>
@@ -1588,17 +1166,17 @@
       <c r="L13" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="1">
-        <v>45337.27595260417</v>
+      <c r="M13" t="s">
+        <v>24</v>
       </c>
       <c r="P13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R13" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14">
         <v>1005</v>
       </c>
@@ -1615,7 +1193,7 @@
         <v>327</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I14">
         <v>10005</v>
@@ -1629,22 +1207,22 @@
       <c r="L14" t="s">
         <v>23</v>
       </c>
-      <c r="M14" s="1">
-        <v>45337.27595260417</v>
+      <c r="M14" t="s">
+        <v>24</v>
       </c>
       <c r="P14" t="s">
-        <v>24</v>
-      </c>
-      <c r="R14" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15">
         <v>2005</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>19</v>
@@ -1656,7 +1234,7 @@
         <v>165</v>
       </c>
       <c r="H15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I15">
         <v>10005</v>
@@ -1670,22 +1248,22 @@
       <c r="L15" t="s">
         <v>23</v>
       </c>
-      <c r="M15" s="1">
-        <v>45337.27595260417</v>
+      <c r="M15" t="s">
+        <v>24</v>
       </c>
       <c r="P15" t="s">
-        <v>24</v>
-      </c>
-      <c r="R15" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16">
         <v>3005</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1697,7 +1275,7 @@
         <v>736</v>
       </c>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I16">
         <v>10005</v>
@@ -1711,17 +1289,17 @@
       <c r="L16" t="s">
         <v>23</v>
       </c>
-      <c r="M16" s="1">
-        <v>45337.27595260417</v>
+      <c r="M16" t="s">
+        <v>24</v>
       </c>
       <c r="P16" t="s">
-        <v>24</v>
-      </c>
-      <c r="R16" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17">
         <v>1006</v>
       </c>
@@ -1738,7 +1316,7 @@
         <v>327</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I17">
         <v>10006</v>
@@ -1752,22 +1330,22 @@
       <c r="L17" t="s">
         <v>23</v>
       </c>
-      <c r="M17" s="1">
-        <v>45337.27595260417</v>
+      <c r="M17" t="s">
+        <v>24</v>
       </c>
       <c r="P17" t="s">
-        <v>24</v>
-      </c>
-      <c r="R17" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18">
         <v>2006</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -1779,7 +1357,7 @@
         <v>165</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I18">
         <v>10006</v>
@@ -1793,22 +1371,22 @@
       <c r="L18" t="s">
         <v>23</v>
       </c>
-      <c r="M18" s="1">
-        <v>45337.27595260417</v>
+      <c r="M18" t="s">
+        <v>24</v>
       </c>
       <c r="P18" t="s">
-        <v>24</v>
-      </c>
-      <c r="R18" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19">
         <v>3006</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
         <v>19</v>
@@ -1820,7 +1398,7 @@
         <v>736</v>
       </c>
       <c r="H19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I19">
         <v>10006</v>
@@ -1834,17 +1412,17 @@
       <c r="L19" t="s">
         <v>23</v>
       </c>
-      <c r="M19" s="1">
-        <v>45337.27595260417</v>
+      <c r="M19" t="s">
+        <v>24</v>
       </c>
       <c r="P19" t="s">
-        <v>24</v>
-      </c>
-      <c r="R19" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20">
         <v>1007</v>
       </c>
@@ -1861,7 +1439,7 @@
         <v>327</v>
       </c>
       <c r="H20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I20">
         <v>10007</v>
@@ -1875,22 +1453,22 @@
       <c r="L20" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="1">
-        <v>45337.27595260417</v>
+      <c r="M20" t="s">
+        <v>24</v>
       </c>
       <c r="P20" t="s">
-        <v>24</v>
-      </c>
-      <c r="R20" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21">
         <v>2007</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
         <v>19</v>
@@ -1902,7 +1480,7 @@
         <v>165</v>
       </c>
       <c r="H21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I21">
         <v>10007</v>
@@ -1916,22 +1494,22 @@
       <c r="L21" t="s">
         <v>23</v>
       </c>
-      <c r="M21" s="1">
-        <v>45337.27595260417</v>
+      <c r="M21" t="s">
+        <v>24</v>
       </c>
       <c r="P21" t="s">
-        <v>24</v>
-      </c>
-      <c r="R21" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22">
         <v>3007</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
@@ -1943,7 +1521,7 @@
         <v>736</v>
       </c>
       <c r="H22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I22">
         <v>10007</v>
@@ -1957,17 +1535,17 @@
       <c r="L22" t="s">
         <v>23</v>
       </c>
-      <c r="M22" s="1">
-        <v>45337.27595260417</v>
+      <c r="M22" t="s">
+        <v>24</v>
       </c>
       <c r="P22" t="s">
-        <v>24</v>
-      </c>
-      <c r="R22" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23">
         <v>1008</v>
       </c>
@@ -1984,7 +1562,7 @@
         <v>327</v>
       </c>
       <c r="H23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I23">
         <v>10008</v>
@@ -1998,22 +1576,22 @@
       <c r="L23" t="s">
         <v>23</v>
       </c>
-      <c r="M23" s="1">
-        <v>45337.27595260417</v>
+      <c r="M23" t="s">
+        <v>24</v>
       </c>
       <c r="P23" t="s">
-        <v>24</v>
-      </c>
-      <c r="R23" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R23" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24">
         <v>2008</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
@@ -2025,7 +1603,7 @@
         <v>165</v>
       </c>
       <c r="H24" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I24">
         <v>10008</v>
@@ -2039,22 +1617,22 @@
       <c r="L24" t="s">
         <v>23</v>
       </c>
-      <c r="M24" s="1">
-        <v>45337.27595260417</v>
+      <c r="M24" t="s">
+        <v>24</v>
       </c>
       <c r="P24" t="s">
-        <v>24</v>
-      </c>
-      <c r="R24" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25">
         <v>3008</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
@@ -2066,7 +1644,7 @@
         <v>736</v>
       </c>
       <c r="H25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I25">
         <v>10008</v>
@@ -2080,17 +1658,17 @@
       <c r="L25" t="s">
         <v>23</v>
       </c>
-      <c r="M25" s="1">
-        <v>45337.27595260417</v>
+      <c r="M25" t="s">
+        <v>24</v>
       </c>
       <c r="P25" t="s">
-        <v>24</v>
-      </c>
-      <c r="R25" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26">
         <v>1009</v>
       </c>
@@ -2107,7 +1685,7 @@
         <v>327</v>
       </c>
       <c r="H26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I26">
         <v>10009</v>
@@ -2121,22 +1699,22 @@
       <c r="L26" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="1">
-        <v>45337.27595260417</v>
+      <c r="M26" t="s">
+        <v>24</v>
       </c>
       <c r="P26" t="s">
-        <v>24</v>
-      </c>
-      <c r="R26" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27">
         <v>2009</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
         <v>19</v>
@@ -2148,7 +1726,7 @@
         <v>165</v>
       </c>
       <c r="H27" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I27">
         <v>10009</v>
@@ -2162,22 +1740,22 @@
       <c r="L27" t="s">
         <v>23</v>
       </c>
-      <c r="M27" s="1">
-        <v>45337.27595260417</v>
+      <c r="M27" t="s">
+        <v>24</v>
       </c>
       <c r="P27" t="s">
-        <v>24</v>
-      </c>
-      <c r="R27" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28">
         <v>3009</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C28" t="s">
         <v>19</v>
@@ -2189,7 +1767,7 @@
         <v>736</v>
       </c>
       <c r="H28" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I28">
         <v>10009</v>
@@ -2203,17 +1781,17 @@
       <c r="L28" t="s">
         <v>23</v>
       </c>
-      <c r="M28" s="1">
-        <v>45337.27595260417</v>
+      <c r="M28" t="s">
+        <v>24</v>
       </c>
       <c r="P28" t="s">
-        <v>24</v>
-      </c>
-      <c r="R28" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29">
         <v>1010</v>
       </c>
@@ -2230,7 +1808,7 @@
         <v>327</v>
       </c>
       <c r="H29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I29">
         <v>10010</v>
@@ -2244,22 +1822,22 @@
       <c r="L29" t="s">
         <v>23</v>
       </c>
-      <c r="M29" s="1">
-        <v>45337.27595260417</v>
+      <c r="M29" t="s">
+        <v>24</v>
       </c>
       <c r="P29" t="s">
-        <v>24</v>
-      </c>
-      <c r="R29" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30">
         <v>2010</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
         <v>19</v>
@@ -2271,7 +1849,7 @@
         <v>165</v>
       </c>
       <c r="H30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I30">
         <v>10010</v>
@@ -2285,22 +1863,22 @@
       <c r="L30" t="s">
         <v>23</v>
       </c>
-      <c r="M30" s="1">
-        <v>45337.27595260417</v>
+      <c r="M30" t="s">
+        <v>24</v>
       </c>
       <c r="P30" t="s">
-        <v>24</v>
-      </c>
-      <c r="R30" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31">
         <v>3010</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
         <v>19</v>
@@ -2312,7 +1890,7 @@
         <v>736</v>
       </c>
       <c r="H31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I31">
         <v>10010</v>
@@ -2326,17 +1904,17 @@
       <c r="L31" t="s">
         <v>23</v>
       </c>
-      <c r="M31" s="1">
-        <v>45337.27595260417</v>
+      <c r="M31" t="s">
+        <v>24</v>
       </c>
       <c r="P31" t="s">
-        <v>24</v>
-      </c>
-      <c r="R31" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
       <c r="A32">
         <v>1011</v>
       </c>
@@ -2353,7 +1931,7 @@
         <v>327</v>
       </c>
       <c r="H32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I32">
         <v>10011</v>
@@ -2367,22 +1945,22 @@
       <c r="L32" t="s">
         <v>23</v>
       </c>
-      <c r="M32" s="1">
-        <v>45337.27595260417</v>
+      <c r="M32" t="s">
+        <v>24</v>
       </c>
       <c r="P32" t="s">
-        <v>24</v>
-      </c>
-      <c r="R32" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33">
         <v>2011</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
         <v>19</v>
@@ -2394,7 +1972,7 @@
         <v>165</v>
       </c>
       <c r="H33" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I33">
         <v>10011</v>
@@ -2408,22 +1986,22 @@
       <c r="L33" t="s">
         <v>23</v>
       </c>
-      <c r="M33" s="1">
-        <v>45337.27595260417</v>
+      <c r="M33" t="s">
+        <v>24</v>
       </c>
       <c r="P33" t="s">
-        <v>24</v>
-      </c>
-      <c r="R33" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
       <c r="A34">
         <v>3011</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
         <v>19</v>
@@ -2435,7 +2013,7 @@
         <v>736</v>
       </c>
       <c r="H34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I34">
         <v>10011</v>
@@ -2449,17 +2027,17 @@
       <c r="L34" t="s">
         <v>23</v>
       </c>
-      <c r="M34" s="1">
-        <v>45337.27595260417</v>
+      <c r="M34" t="s">
+        <v>24</v>
       </c>
       <c r="P34" t="s">
-        <v>24</v>
-      </c>
-      <c r="R34" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35">
         <v>1012</v>
       </c>
@@ -2476,7 +2054,7 @@
         <v>327</v>
       </c>
       <c r="H35" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I35">
         <v>10012</v>
@@ -2490,22 +2068,22 @@
       <c r="L35" t="s">
         <v>23</v>
       </c>
-      <c r="M35" s="1">
-        <v>45337.27595260417</v>
+      <c r="M35" t="s">
+        <v>24</v>
       </c>
       <c r="P35" t="s">
-        <v>24</v>
-      </c>
-      <c r="R35" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R35" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36">
         <v>2012</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
         <v>19</v>
@@ -2517,7 +2095,7 @@
         <v>165</v>
       </c>
       <c r="H36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I36">
         <v>10012</v>
@@ -2531,22 +2109,22 @@
       <c r="L36" t="s">
         <v>23</v>
       </c>
-      <c r="M36" s="1">
-        <v>45337.27595260417</v>
+      <c r="M36" t="s">
+        <v>24</v>
       </c>
       <c r="P36" t="s">
-        <v>24</v>
-      </c>
-      <c r="R36" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37">
         <v>3012</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
         <v>19</v>
@@ -2558,7 +2136,7 @@
         <v>736</v>
       </c>
       <c r="H37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I37">
         <v>10012</v>
@@ -2572,104 +2150,104 @@
       <c r="L37" t="s">
         <v>23</v>
       </c>
-      <c r="M37" s="1">
-        <v>45337.27595260417</v>
+      <c r="M37" t="s">
+        <v>24</v>
       </c>
       <c r="P37" t="s">
-        <v>24</v>
-      </c>
-      <c r="R37" s="1">
-        <v>45337.275953402779</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
-        <v>39</v>
-      </c>
-      <c r="F38" s="2">
-        <v>45390.875</v>
+        <v>41</v>
+      </c>
+      <c r="F38" t="s">
+        <v>42</v>
       </c>
       <c r="G38">
         <v>736</v>
       </c>
       <c r="H38" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I38">
         <v>10002</v>
       </c>
       <c r="K38" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L38" t="s">
-        <v>41</v>
-      </c>
-      <c r="M38" s="1">
-        <v>45391.616579016205</v>
+        <v>44</v>
+      </c>
+      <c r="M38" t="s">
+        <v>45</v>
       </c>
       <c r="P38" t="s">
-        <v>24</v>
-      </c>
-      <c r="R38" s="1">
-        <v>45391.616579016205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" t="s">
         <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" t="s">
-        <v>44</v>
-      </c>
-      <c r="F39" s="2">
-        <v>45390.875</v>
       </c>
       <c r="G39">
         <v>327</v>
       </c>
       <c r="H39" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I39">
         <v>10002</v>
       </c>
       <c r="K39" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L39" t="s">
-        <v>41</v>
-      </c>
-      <c r="M39" s="1">
-        <v>45391.618036296299</v>
+        <v>44</v>
+      </c>
+      <c r="M39" t="s">
+        <v>49</v>
       </c>
       <c r="P39" t="s">
-        <v>24</v>
-      </c>
-      <c r="R39" s="1">
-        <v>45391.618036296299</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C40">
         <v>939541443</v>
@@ -2677,40 +2255,40 @@
       <c r="D40">
         <v>939541443</v>
       </c>
-      <c r="F40" s="2">
-        <v>45390.875</v>
+      <c r="F40" t="s">
+        <v>42</v>
       </c>
       <c r="G40">
         <v>165</v>
       </c>
       <c r="H40" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I40">
         <v>10002</v>
       </c>
       <c r="K40" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L40" t="s">
-        <v>41</v>
-      </c>
-      <c r="M40" s="1">
-        <v>45391.619378067131</v>
+        <v>44</v>
+      </c>
+      <c r="M40" t="s">
+        <v>52</v>
       </c>
       <c r="P40" t="s">
-        <v>24</v>
-      </c>
-      <c r="R40" s="1">
-        <v>45391.619378067131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C41">
         <v>939541443</v>
@@ -2718,14 +2296,14 @@
       <c r="D41">
         <v>939541443</v>
       </c>
-      <c r="F41" s="2">
-        <v>45390.875</v>
+      <c r="F41" t="s">
+        <v>42</v>
       </c>
       <c r="G41">
         <v>165</v>
       </c>
       <c r="H41" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I41">
         <v>10002</v>
@@ -2734,45 +2312,45 @@
         <v>22</v>
       </c>
       <c r="L41" t="s">
-        <v>41</v>
-      </c>
-      <c r="M41" s="1">
-        <v>45391.619378067131</v>
+        <v>44</v>
+      </c>
+      <c r="M41" t="s">
+        <v>52</v>
       </c>
       <c r="N41" t="s">
-        <v>41</v>
-      </c>
-      <c r="O41" s="1">
-        <v>45391.619635810188</v>
+        <v>44</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
       </c>
       <c r="P41" t="s">
-        <v>24</v>
-      </c>
-      <c r="R41" s="1">
-        <v>45391.619635810188</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" t="s">
+        <v>48</v>
+      </c>
+      <c r="F42" t="s">
         <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" t="s">
-        <v>44</v>
-      </c>
-      <c r="F42" s="2">
-        <v>45390.875</v>
       </c>
       <c r="G42">
         <v>327</v>
       </c>
       <c r="H42" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I42">
         <v>10002</v>
@@ -2781,45 +2359,45 @@
         <v>22</v>
       </c>
       <c r="L42" t="s">
+        <v>44</v>
+      </c>
+      <c r="M42" t="s">
+        <v>49</v>
+      </c>
+      <c r="N42" t="s">
+        <v>44</v>
+      </c>
+      <c r="O42" t="s">
+        <v>54</v>
+      </c>
+      <c r="P42" t="s">
+        <v>25</v>
+      </c>
+      <c r="R42" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" t="s">
         <v>41</v>
       </c>
-      <c r="M42" s="1">
-        <v>45391.618036296299</v>
-      </c>
-      <c r="N42" t="s">
-        <v>41</v>
-      </c>
-      <c r="O42" s="1">
-        <v>45391.619686087965</v>
-      </c>
-      <c r="P42" t="s">
-        <v>24</v>
-      </c>
-      <c r="R42" s="1">
-        <v>45391.619686087965</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" t="s">
-        <v>39</v>
-      </c>
-      <c r="F43" s="2">
-        <v>45390.875</v>
+      <c r="F43" t="s">
+        <v>42</v>
       </c>
       <c r="G43">
         <v>736</v>
       </c>
       <c r="H43" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I43">
         <v>10002</v>
@@ -2828,45 +2406,45 @@
         <v>22</v>
       </c>
       <c r="L43" t="s">
-        <v>41</v>
-      </c>
-      <c r="M43" s="1">
-        <v>45391.616579016205</v>
+        <v>44</v>
+      </c>
+      <c r="M43" t="s">
+        <v>45</v>
       </c>
       <c r="N43" t="s">
-        <v>41</v>
-      </c>
-      <c r="O43" s="1">
-        <v>45391.619732430554</v>
+        <v>44</v>
+      </c>
+      <c r="O43" t="s">
+        <v>55</v>
       </c>
       <c r="P43" t="s">
-        <v>24</v>
-      </c>
-      <c r="R43" s="1">
-        <v>45391.619732430554</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
-      </c>
-      <c r="F44" s="2">
-        <v>45390.875</v>
+        <v>56</v>
+      </c>
+      <c r="F44" t="s">
+        <v>42</v>
       </c>
       <c r="G44">
         <v>736</v>
       </c>
       <c r="H44" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I44">
         <v>10002</v>
@@ -2875,45 +2453,45 @@
         <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>41</v>
-      </c>
-      <c r="M44" s="1">
-        <v>45391.616579016205</v>
+        <v>44</v>
+      </c>
+      <c r="M44" t="s">
+        <v>45</v>
       </c>
       <c r="N44" t="s">
-        <v>41</v>
-      </c>
-      <c r="O44" s="1">
-        <v>45391.713058148147</v>
+        <v>44</v>
+      </c>
+      <c r="O44" t="s">
+        <v>57</v>
       </c>
       <c r="P44" t="s">
-        <v>24</v>
-      </c>
-      <c r="R44" s="1">
-        <v>45391.713058148147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C45">
         <v>939541443</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" s="2">
-        <v>45390.875</v>
+        <v>58</v>
+      </c>
+      <c r="F45" t="s">
+        <v>42</v>
       </c>
       <c r="G45">
         <v>165</v>
       </c>
       <c r="H45" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I45">
         <v>10002</v>
@@ -2922,45 +2500,45 @@
         <v>22</v>
       </c>
       <c r="L45" t="s">
-        <v>41</v>
-      </c>
-      <c r="M45" s="1">
-        <v>45391.619378067131</v>
+        <v>44</v>
+      </c>
+      <c r="M45" t="s">
+        <v>52</v>
       </c>
       <c r="N45" t="s">
-        <v>41</v>
-      </c>
-      <c r="O45" s="1">
-        <v>45391.713450428244</v>
+        <v>44</v>
+      </c>
+      <c r="O45" t="s">
+        <v>59</v>
       </c>
       <c r="P45" t="s">
-        <v>24</v>
-      </c>
-      <c r="R45" s="1">
-        <v>45391.713450428244</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C46">
         <v>939541443</v>
       </c>
       <c r="D46" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46" s="2">
-        <v>45390.875</v>
+        <v>58</v>
+      </c>
+      <c r="F46" t="s">
+        <v>42</v>
       </c>
       <c r="G46">
         <v>165</v>
       </c>
       <c r="H46" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I46">
         <v>10040</v>
@@ -2969,45 +2547,45 @@
         <v>22</v>
       </c>
       <c r="L46" t="s">
-        <v>41</v>
-      </c>
-      <c r="M46" s="1">
-        <v>45391.619378067131</v>
+        <v>44</v>
+      </c>
+      <c r="M46" t="s">
+        <v>52</v>
       </c>
       <c r="N46" t="s">
-        <v>41</v>
-      </c>
-      <c r="O46" s="1">
-        <v>45391.71615270833</v>
+        <v>44</v>
+      </c>
+      <c r="O46" t="s">
+        <v>61</v>
       </c>
       <c r="P46" t="s">
-        <v>24</v>
-      </c>
-      <c r="R46" s="1">
-        <v>45391.71615270833</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R46" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" t="s">
         <v>42</v>
-      </c>
-      <c r="B47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D47" t="s">
-        <v>44</v>
-      </c>
-      <c r="F47" s="2">
-        <v>45390.875</v>
       </c>
       <c r="G47">
         <v>327</v>
       </c>
       <c r="H47" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I47">
         <v>10040</v>
@@ -3016,45 +2594,45 @@
         <v>22</v>
       </c>
       <c r="L47" t="s">
-        <v>41</v>
-      </c>
-      <c r="M47" s="1">
-        <v>45391.618036296299</v>
+        <v>44</v>
+      </c>
+      <c r="M47" t="s">
+        <v>49</v>
       </c>
       <c r="N47" t="s">
-        <v>41</v>
-      </c>
-      <c r="O47" s="1">
-        <v>45391.716445601851</v>
+        <v>44</v>
+      </c>
+      <c r="O47" t="s">
+        <v>62</v>
       </c>
       <c r="P47" t="s">
-        <v>24</v>
-      </c>
-      <c r="R47" s="1">
-        <v>45391.716445601851</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B48" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
-      </c>
-      <c r="F48" s="2">
-        <v>45390.875</v>
+        <v>56</v>
+      </c>
+      <c r="F48" t="s">
+        <v>42</v>
       </c>
       <c r="G48">
         <v>736</v>
       </c>
       <c r="H48" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I48">
         <v>10040</v>
@@ -3063,45 +2641,45 @@
         <v>22</v>
       </c>
       <c r="L48" t="s">
-        <v>41</v>
-      </c>
-      <c r="M48" s="1">
-        <v>45391.616579016205</v>
+        <v>44</v>
+      </c>
+      <c r="M48" t="s">
+        <v>45</v>
       </c>
       <c r="N48" t="s">
-        <v>41</v>
-      </c>
-      <c r="O48" s="1">
-        <v>45391.716955856478</v>
+        <v>44</v>
+      </c>
+      <c r="O48" t="s">
+        <v>63</v>
       </c>
       <c r="P48" t="s">
-        <v>24</v>
-      </c>
-      <c r="R48" s="1">
-        <v>45391.716955856478</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>48</v>
-      </c>
-      <c r="F49" s="2">
-        <v>45390.875</v>
+        <v>58</v>
+      </c>
+      <c r="F49" t="s">
+        <v>42</v>
       </c>
       <c r="G49">
         <v>165</v>
       </c>
       <c r="H49" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I49">
         <v>10040</v>
@@ -3110,30 +2688,30 @@
         <v>22</v>
       </c>
       <c r="L49" t="s">
-        <v>41</v>
-      </c>
-      <c r="M49" s="1">
-        <v>45391.619378067131</v>
+        <v>44</v>
+      </c>
+      <c r="M49" t="s">
+        <v>52</v>
       </c>
       <c r="N49" t="s">
-        <v>41</v>
-      </c>
-      <c r="O49" s="1">
-        <v>45391.717374027779</v>
+        <v>44</v>
+      </c>
+      <c r="O49" t="s">
+        <v>64</v>
       </c>
       <c r="P49" t="s">
-        <v>24</v>
-      </c>
-      <c r="R49" s="1">
-        <v>45391.717374027779</v>
-      </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C50">
         <v>939541443</v>
@@ -3141,14 +2719,14 @@
       <c r="D50">
         <v>939541443</v>
       </c>
-      <c r="F50" s="2">
-        <v>45392.875</v>
+      <c r="F50" t="s">
+        <v>65</v>
       </c>
       <c r="G50">
         <v>165</v>
       </c>
       <c r="H50" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I50">
         <v>10040</v>
@@ -3157,30 +2735,30 @@
         <v>22</v>
       </c>
       <c r="L50" t="s">
-        <v>41</v>
-      </c>
-      <c r="M50" s="1">
-        <v>45391.619378067131</v>
+        <v>44</v>
+      </c>
+      <c r="M50" t="s">
+        <v>52</v>
       </c>
       <c r="N50" t="s">
-        <v>41</v>
-      </c>
-      <c r="O50" s="1">
-        <v>45393.264102986112</v>
+        <v>44</v>
+      </c>
+      <c r="O50" t="s">
+        <v>66</v>
       </c>
       <c r="P50" t="s">
-        <v>24</v>
-      </c>
-      <c r="R50" s="1">
-        <v>45393.264102986112</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R50" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C51">
         <v>939541443</v>
@@ -3188,93 +2766,93 @@
       <c r="D51">
         <v>939541443</v>
       </c>
-      <c r="F51" s="2">
-        <v>45392.875</v>
+      <c r="F51" t="s">
+        <v>65</v>
       </c>
       <c r="G51">
         <v>165</v>
       </c>
       <c r="H51" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I51">
         <v>10040</v>
       </c>
       <c r="K51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L51" t="s">
-        <v>41</v>
-      </c>
-      <c r="M51" s="1">
-        <v>45391.619378067131</v>
+        <v>44</v>
+      </c>
+      <c r="M51" t="s">
+        <v>52</v>
       </c>
       <c r="N51" t="s">
-        <v>41</v>
-      </c>
-      <c r="O51" s="1">
-        <v>45469.535180868057</v>
+        <v>44</v>
+      </c>
+      <c r="O51" t="s">
+        <v>67</v>
       </c>
       <c r="P51" t="s">
-        <v>24</v>
-      </c>
-      <c r="R51" s="1">
-        <v>45469.535180868057</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
-      </c>
-      <c r="F52" s="2">
-        <v>45390.875</v>
+        <v>56</v>
+      </c>
+      <c r="F52" t="s">
+        <v>42</v>
       </c>
       <c r="G52">
         <v>736</v>
       </c>
       <c r="H52" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I52">
         <v>10040</v>
       </c>
       <c r="K52" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L52" t="s">
-        <v>41</v>
-      </c>
-      <c r="M52" s="1">
-        <v>45391.616579016205</v>
+        <v>44</v>
+      </c>
+      <c r="M52" t="s">
+        <v>45</v>
       </c>
       <c r="N52" t="s">
-        <v>41</v>
-      </c>
-      <c r="O52" s="1">
-        <v>45469.535255405091</v>
+        <v>44</v>
+      </c>
+      <c r="O52" t="s">
+        <v>68</v>
       </c>
       <c r="P52" t="s">
-        <v>24</v>
-      </c>
-      <c r="R52" s="1">
-        <v>45469.535255405091</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R52" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C53">
         <v>939541443</v>
@@ -3282,14 +2860,14 @@
       <c r="D53">
         <v>939541443</v>
       </c>
-      <c r="F53" s="2">
-        <v>45392.875</v>
+      <c r="F53" t="s">
+        <v>65</v>
       </c>
       <c r="G53">
         <v>165</v>
       </c>
       <c r="H53" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I53">
         <v>10040</v>
@@ -3298,45 +2876,45 @@
         <v>22</v>
       </c>
       <c r="L53" t="s">
-        <v>41</v>
-      </c>
-      <c r="M53" s="1">
-        <v>45391.619378067131</v>
+        <v>44</v>
+      </c>
+      <c r="M53" t="s">
+        <v>52</v>
       </c>
       <c r="N53" t="s">
-        <v>41</v>
-      </c>
-      <c r="O53" s="1">
-        <v>45469.536792395833</v>
+        <v>44</v>
+      </c>
+      <c r="O53" t="s">
+        <v>69</v>
       </c>
       <c r="P53" t="s">
-        <v>24</v>
-      </c>
-      <c r="R53" s="1">
-        <v>45469.536792395833</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R53" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D54" t="s">
-        <v>47</v>
-      </c>
-      <c r="F54" s="2">
-        <v>45390.875</v>
+        <v>56</v>
+      </c>
+      <c r="F54" t="s">
+        <v>42</v>
       </c>
       <c r="G54">
         <v>736</v>
       </c>
       <c r="H54" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I54">
         <v>10040</v>
@@ -3345,30 +2923,30 @@
         <v>22</v>
       </c>
       <c r="L54" t="s">
-        <v>41</v>
-      </c>
-      <c r="M54" s="1">
-        <v>45391.616579016205</v>
+        <v>44</v>
+      </c>
+      <c r="M54" t="s">
+        <v>45</v>
       </c>
       <c r="N54" t="s">
-        <v>41</v>
-      </c>
-      <c r="O54" s="1">
-        <v>45469.53687462963</v>
+        <v>44</v>
+      </c>
+      <c r="O54" t="s">
+        <v>70</v>
       </c>
       <c r="P54" t="s">
-        <v>24</v>
-      </c>
-      <c r="R54" s="1">
-        <v>45469.53687462963</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C55">
         <v>939541443</v>
@@ -3376,14 +2954,14 @@
       <c r="D55">
         <v>939541443</v>
       </c>
-      <c r="F55" s="2">
-        <v>46021.875</v>
+      <c r="F55" t="s">
+        <v>71</v>
       </c>
       <c r="G55">
         <v>165</v>
       </c>
       <c r="H55" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I55">
         <v>10040</v>
@@ -3392,45 +2970,45 @@
         <v>22</v>
       </c>
       <c r="L55" t="s">
-        <v>41</v>
-      </c>
-      <c r="M55" s="1">
-        <v>45391.619378067131</v>
+        <v>44</v>
+      </c>
+      <c r="M55" t="s">
+        <v>52</v>
       </c>
       <c r="N55" t="s">
-        <v>41</v>
-      </c>
-      <c r="O55" s="1">
-        <v>45512.258102442131</v>
+        <v>44</v>
+      </c>
+      <c r="O55" t="s">
+        <v>72</v>
       </c>
       <c r="P55" t="s">
-        <v>24</v>
-      </c>
-      <c r="R55" s="1">
-        <v>45512.258102442131</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B56" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" s="2">
-        <v>46021.875</v>
+        <v>48</v>
+      </c>
+      <c r="F56" t="s">
+        <v>71</v>
       </c>
       <c r="G56">
         <v>327</v>
       </c>
       <c r="H56" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I56">
         <v>10040</v>
@@ -3439,45 +3017,45 @@
         <v>22</v>
       </c>
       <c r="L56" t="s">
-        <v>41</v>
-      </c>
-      <c r="M56" s="1">
-        <v>45391.618036296299</v>
+        <v>44</v>
+      </c>
+      <c r="M56" t="s">
+        <v>49</v>
       </c>
       <c r="N56" t="s">
-        <v>41</v>
-      </c>
-      <c r="O56" s="1">
-        <v>45512.258493587964</v>
+        <v>44</v>
+      </c>
+      <c r="O56" t="s">
+        <v>73</v>
       </c>
       <c r="P56" t="s">
-        <v>24</v>
-      </c>
-      <c r="R56" s="1">
-        <v>45512.258493587964</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C57" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D57" t="s">
-        <v>47</v>
-      </c>
-      <c r="F57" s="2">
-        <v>46021.875</v>
+        <v>56</v>
+      </c>
+      <c r="F57" t="s">
+        <v>71</v>
       </c>
       <c r="G57">
         <v>736</v>
       </c>
       <c r="H57" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I57">
         <v>10040</v>
@@ -3486,30 +3064,30 @@
         <v>22</v>
       </c>
       <c r="L57" t="s">
-        <v>41</v>
-      </c>
-      <c r="M57" s="1">
-        <v>45391.616579016205</v>
+        <v>44</v>
+      </c>
+      <c r="M57" t="s">
+        <v>45</v>
       </c>
       <c r="N57" t="s">
-        <v>41</v>
-      </c>
-      <c r="O57" s="1">
-        <v>45512.258704363427</v>
+        <v>44</v>
+      </c>
+      <c r="O57" t="s">
+        <v>74</v>
       </c>
       <c r="P57" t="s">
-        <v>24</v>
-      </c>
-      <c r="R57" s="1">
-        <v>45512.258704363427</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C58">
         <v>939651125</v>
@@ -3517,40 +3095,40 @@
       <c r="D58">
         <v>939651125</v>
       </c>
-      <c r="F58" s="2">
-        <v>46021.875</v>
+      <c r="F58" t="s">
+        <v>71</v>
       </c>
       <c r="G58">
         <v>165</v>
       </c>
       <c r="H58" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="I58">
         <v>10040</v>
       </c>
       <c r="K58" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L58" t="s">
-        <v>41</v>
-      </c>
-      <c r="M58" s="1">
-        <v>45512.299187118057</v>
+        <v>44</v>
+      </c>
+      <c r="M58" t="s">
+        <v>77</v>
       </c>
       <c r="P58" t="s">
-        <v>24</v>
-      </c>
-      <c r="R58" s="1">
-        <v>45512.299187118057</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C59">
         <v>939651125</v>
@@ -3558,14 +3136,14 @@
       <c r="D59">
         <v>939651125</v>
       </c>
-      <c r="F59" s="2">
-        <v>46021.875</v>
+      <c r="F59" t="s">
+        <v>71</v>
       </c>
       <c r="G59">
         <v>165</v>
       </c>
       <c r="H59" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="I59">
         <v>10040</v>
@@ -3574,86 +3152,86 @@
         <v>22</v>
       </c>
       <c r="L59" t="s">
-        <v>41</v>
-      </c>
-      <c r="M59" s="1">
-        <v>45512.299187118057</v>
+        <v>44</v>
+      </c>
+      <c r="M59" t="s">
+        <v>77</v>
       </c>
       <c r="N59" t="s">
-        <v>41</v>
-      </c>
-      <c r="O59" s="1">
-        <v>45512.29930648148</v>
+        <v>44</v>
+      </c>
+      <c r="O59" t="s">
+        <v>78</v>
       </c>
       <c r="P59" t="s">
-        <v>24</v>
-      </c>
-      <c r="R59" s="1">
-        <v>45512.29930648148</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D60" t="s">
-        <v>53</v>
-      </c>
-      <c r="F60" s="2">
-        <v>46021.875</v>
+        <v>80</v>
+      </c>
+      <c r="F60" t="s">
+        <v>71</v>
       </c>
       <c r="G60">
         <v>327</v>
       </c>
       <c r="H60" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="I60">
         <v>10040</v>
       </c>
       <c r="K60" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L60" t="s">
-        <v>41</v>
-      </c>
-      <c r="M60" s="1">
-        <v>45512.328487777777</v>
+        <v>44</v>
+      </c>
+      <c r="M60" t="s">
+        <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>24</v>
-      </c>
-      <c r="R60" s="1">
-        <v>45512.328487777777</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="R60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B61" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C61" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D61" t="s">
-        <v>53</v>
-      </c>
-      <c r="F61" s="2">
-        <v>46021.875</v>
+        <v>80</v>
+      </c>
+      <c r="F61" t="s">
+        <v>71</v>
       </c>
       <c r="G61">
         <v>327</v>
       </c>
       <c r="H61" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="I61">
         <v>10040</v>
@@ -3662,25 +3240,130 @@
         <v>22</v>
       </c>
       <c r="L61" t="s">
-        <v>41</v>
-      </c>
-      <c r="M61" s="1">
-        <v>45512.328487777777</v>
+        <v>44</v>
+      </c>
+      <c r="M61" t="s">
+        <v>81</v>
       </c>
       <c r="N61" t="s">
-        <v>41</v>
-      </c>
-      <c r="O61" s="1">
-        <v>45512.328574224535</v>
+        <v>44</v>
+      </c>
+      <c r="O61" t="s">
+        <v>82</v>
       </c>
       <c r="P61" t="s">
-        <v>24</v>
-      </c>
-      <c r="R61" s="1">
-        <v>45512.328574224535</v>
+        <v>25</v>
+      </c>
+      <c r="R61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62">
+        <v>1234567</v>
+      </c>
+      <c r="E62">
+        <v>876543211234</v>
+      </c>
+      <c r="F62" t="s">
+        <v>86</v>
+      </c>
+      <c r="G62">
+        <v>165</v>
+      </c>
+      <c r="H62" t="s">
+        <v>76</v>
+      </c>
+      <c r="I62">
+        <v>10040</v>
+      </c>
+      <c r="K62" t="s">
+        <v>25</v>
+      </c>
+      <c r="L62" t="s">
+        <v>44</v>
+      </c>
+      <c r="M62" t="s">
+        <v>87</v>
+      </c>
+      <c r="P62" t="s">
+        <v>25</v>
+      </c>
+      <c r="R62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63">
+        <v>1234567</v>
+      </c>
+      <c r="E63">
+        <v>876543211234</v>
+      </c>
+      <c r="F63" t="s">
+        <v>86</v>
+      </c>
+      <c r="G63">
+        <v>165</v>
+      </c>
+      <c r="H63" t="s">
+        <v>76</v>
+      </c>
+      <c r="I63">
+        <v>10040</v>
+      </c>
+      <c r="K63" t="s">
+        <v>22</v>
+      </c>
+      <c r="L63" t="s">
+        <v>44</v>
+      </c>
+      <c r="M63" t="s">
+        <v>87</v>
+      </c>
+      <c r="N63" t="s">
+        <v>44</v>
+      </c>
+      <c r="O63" t="s">
+        <v>88</v>
+      </c>
+      <c r="P63" t="s">
+        <v>25</v>
+      </c>
+      <c r="R63" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>